--- a/biology/Zoologie/Arpagodus/Arpagodus.xlsx
+++ b/biology/Zoologie/Arpagodus/Arpagodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arpagodus rectangulus
 Arpagodus est un genre éteint de poissons de l'ordre également éteint des Eugeneodontida, des poissons cartilagineux holocéphales caractérisés par une dentition insolite.
-Une seule espèce est connue, Arpagodus rectangulus[1], décrite par Hermann Trautschold (d) en 1879 et pour laquelle il a créé le genre Arpagodus[2].
+Une seule espèce est connue, Arpagodus rectangulus, décrite par Hermann Trautschold (d) en 1879 et pour laquelle il a créé le genre Arpagodus.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) H. Trautschold, « Die Kalkbrüche von Mjatschkowa. Eine Monographie des Oberen Bergkalks », Nouveaux mémoires de la Société impériale des naturalistes de Moscou, Moscou, Société des naturalistes de Moscou, vol. 14,‎ 1879, p. 1-82 (ISSN 1560-0440, OCLC 36346269, lire en ligne)</t>
         </is>
